--- a/關卡.xlsx
+++ b/關卡.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\409-01\Desktop\企劃\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\409-01\Desktop\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>start2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CH4.map1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CH3.map5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,22 +144,6 @@
   </si>
   <si>
     <t>CH3.map11(到達此處後開啟跟CH3.map2的通道)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH4.map2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH4.map3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH4.map4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH4.map5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -234,12 +214,45 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -248,7 +261,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -261,8 +274,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -607,19 +626,19 @@
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -656,18 +675,10 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -691,9 +702,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="1"/>
       <c r="Q5" s="1"/>
@@ -743,7 +752,7 @@
       <c r="N7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -754,13 +763,13 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -768,26 +777,26 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>38</v>
+      <c r="L8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="P8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -796,13 +805,13 @@
     </row>
     <row r="9" spans="1:22" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>15</v>
@@ -847,10 +856,10 @@
     <row r="10" spans="1:22" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>

--- a/關卡.xlsx
+++ b/關卡.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>start2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,14 +73,6 @@
   </si>
   <si>
     <t>CH1.Boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH1.map5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH1.map4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -565,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -626,19 +618,19 @@
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -749,10 +741,9 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2" t="s">
-        <v>23</v>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -763,40 +754,39 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="K8" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="L8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="N8" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="O8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P8" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="P8" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="Q8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -805,16 +795,16 @@
     </row>
     <row r="9" spans="1:22" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>7</v>
@@ -838,14 +828,9 @@
         <v>11</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P9" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="O9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="1"/>
@@ -856,16 +841,16 @@
     <row r="10" spans="1:22" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10" s="2"/>
       <c r="J10" s="2" t="s">

--- a/關卡.xlsx
+++ b/關卡.xlsx
@@ -24,16 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>start2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小木屋外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小木屋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -46,7 +42,104 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CH1.map2</t>
+    <t>CH3.map1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH1.Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH3.map2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH3.map3</t>
+  </si>
+  <si>
+    <t>CH3.map4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH3.map5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH3.map6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH3.map7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH3.map8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH3.Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH1.森林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH.2森林深處</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH.3湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH.4花之境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CH.5 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH3.map11(到達此處後開啟跟CH3.map2的通道)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH3.map9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH3.map10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH1.map4</t>
+  </si>
+  <si>
+    <t>CH1.map5</t>
+  </si>
+  <si>
+    <t>CH1.map3 城堡門口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH1.map2 痛苦面具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH1.map6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH1.map7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH1.map8 謎題1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start3 小木屋外</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -54,105 +147,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CH3.map1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH2.map2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH2.map3</t>
-  </si>
-  <si>
-    <t>CH2.map4</t>
-  </si>
-  <si>
-    <t>CH1.map3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH1.Boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH3.map2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH3.map3</t>
-  </si>
-  <si>
-    <t>CH3.map4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH3.map5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH3.map6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH3.map7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH3.map8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH3.Boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH2.map6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH2.map5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH1.森林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH.2森林深處</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH.3湖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH.4花之境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CH.5 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH3.map11(到達此處後開啟跟CH3.map2的通道)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH3.map9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH3.map10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH2.map7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH2.map8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>CH2.map0</t>
   </si>
 </sst>
 </file>
@@ -206,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -247,13 +242,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -273,6 +288,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -557,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -618,19 +642,19 @@
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -718,7 +742,6 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -739,12 +762,12 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="L7" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="Q7" s="2"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -754,40 +777,32 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="N8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -795,44 +810,50 @@
     </row>
     <row r="9" spans="1:22" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -841,27 +862,24 @@
     <row r="10" spans="1:22" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="O10" s="8"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="1"/>
